--- a/ドキュメント/ドキュメント.xlsx
+++ b/ドキュメント/ドキュメント.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayaur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayaur\Documents\GitHub\GWMakeChart\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79273920-2261-42C3-B51A-CA3E5295E51E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3E1EC-9633-4E79-A383-D03BEB19C056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{5A9E1359-9350-4995-A732-1B3A70830D39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A9E1359-9350-4995-A732-1B3A70830D39}"/>
   </bookViews>
   <sheets>
     <sheet name="予定" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="進捗=&gt;" sheetId="3" r:id="rId4"/>
     <sheet name="04-30" sheetId="4" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>計画立て</t>
     <rPh sb="0" eb="3">
@@ -606,6 +603,26 @@
   </si>
   <si>
     <t>https://github.com/ryotaro-uraya/GWMakeChart</t>
+  </si>
+  <si>
+    <t>&gt;イメージ図参照</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub\GWMakeChart\DDL　内に保存</t>
+    <rPh sb="23" eb="24">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3459,988 +3476,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="jinkohyo1-1-1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>昭和5年</v>
-          </cell>
-          <cell r="B2">
-            <v>5408678</v>
-          </cell>
-          <cell r="C2">
-            <v>64450005</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>昭和6年</v>
-          </cell>
-          <cell r="B3">
-            <v>5521100</v>
-          </cell>
-          <cell r="C3">
-            <v>65457000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>昭和7年</v>
-          </cell>
-          <cell r="B4">
-            <v>5755600</v>
-          </cell>
-          <cell r="C4">
-            <v>66434000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>昭和8年</v>
-          </cell>
-          <cell r="B5">
-            <v>5975100</v>
-          </cell>
-          <cell r="C5">
-            <v>67432000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>昭和9年</v>
-          </cell>
-          <cell r="B6">
-            <v>6176900</v>
-          </cell>
-          <cell r="C6">
-            <v>68309000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>昭和10年</v>
-          </cell>
-          <cell r="B7">
-            <v>6369919</v>
-          </cell>
-          <cell r="C7">
-            <v>69254148</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>昭和11年</v>
-          </cell>
-          <cell r="B8">
-            <v>6586500</v>
-          </cell>
-          <cell r="C8">
-            <v>70114000</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>昭和12年</v>
-          </cell>
-          <cell r="B9">
-            <v>6725700</v>
-          </cell>
-          <cell r="C9">
-            <v>70630000</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>昭和13年</v>
-          </cell>
-          <cell r="B10">
-            <v>6875600</v>
-          </cell>
-          <cell r="C10">
-            <v>71013000</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>昭和14年</v>
-          </cell>
-          <cell r="B11">
-            <v>7081600</v>
-          </cell>
-          <cell r="C11">
-            <v>71380000</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>昭和15年</v>
-          </cell>
-          <cell r="B12">
-            <v>7354971</v>
-          </cell>
-          <cell r="C12">
-            <v>73114308</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>昭和16年</v>
-          </cell>
-          <cell r="B13">
-            <v>7284300</v>
-          </cell>
-          <cell r="C13">
-            <v>72218000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>昭和17年</v>
-          </cell>
-          <cell r="B14">
-            <v>7357800</v>
-          </cell>
-          <cell r="C14">
-            <v>72880000</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>昭和18年</v>
-          </cell>
-          <cell r="B15">
-            <v>7332600</v>
-          </cell>
-          <cell r="C15">
-            <v>73903000</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>昭和19年</v>
-          </cell>
-          <cell r="B16">
-            <v>7271001</v>
-          </cell>
-          <cell r="C16">
-            <v>74433000</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>昭和20年</v>
-          </cell>
-          <cell r="B17">
-            <v>3488284</v>
-          </cell>
-          <cell r="C17">
-            <v>72147000</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>昭和21年</v>
-          </cell>
-          <cell r="B18">
-            <v>4183072</v>
-          </cell>
-          <cell r="C18">
-            <v>75750000</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>昭和22年</v>
-          </cell>
-          <cell r="B19">
-            <v>5000777</v>
-          </cell>
-          <cell r="C19">
-            <v>78101473</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>昭和23年</v>
-          </cell>
-          <cell r="B20">
-            <v>5417871</v>
-          </cell>
-          <cell r="C20">
-            <v>80002000</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>昭和24年</v>
-          </cell>
-          <cell r="B21">
-            <v>5950775</v>
-          </cell>
-          <cell r="C21">
-            <v>81773000</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>昭和25年</v>
-          </cell>
-          <cell r="B22">
-            <v>6277500</v>
-          </cell>
-          <cell r="C22">
-            <v>84114574</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>昭和26年</v>
-          </cell>
-          <cell r="B23">
-            <v>6748950</v>
-          </cell>
-          <cell r="C23">
-            <v>84541000</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>昭和27年</v>
-          </cell>
-          <cell r="B24">
-            <v>7091508</v>
-          </cell>
-          <cell r="C24">
-            <v>85808000</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>昭和28年</v>
-          </cell>
-          <cell r="B25">
-            <v>7448562</v>
-          </cell>
-          <cell r="C25">
-            <v>86981000</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>昭和29年</v>
-          </cell>
-          <cell r="B26">
-            <v>7752730</v>
-          </cell>
-          <cell r="C26">
-            <v>88239000</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>昭和30年</v>
-          </cell>
-          <cell r="B27">
-            <v>8037084</v>
-          </cell>
-          <cell r="C27">
-            <v>90076594</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>昭和31年</v>
-          </cell>
-          <cell r="B28">
-            <v>8342674</v>
-          </cell>
-          <cell r="C28">
-            <v>90172000</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>昭和32年</v>
-          </cell>
-          <cell r="B29">
-            <v>8664412</v>
-          </cell>
-          <cell r="C29">
-            <v>90928000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>昭和33年</v>
-          </cell>
-          <cell r="B30">
-            <v>9006061</v>
-          </cell>
-          <cell r="C30">
-            <v>91767000</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>昭和34年</v>
-          </cell>
-          <cell r="B31">
-            <v>9356024</v>
-          </cell>
-          <cell r="C31">
-            <v>92641000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>昭和35年</v>
-          </cell>
-          <cell r="B32">
-            <v>9683802</v>
-          </cell>
-          <cell r="C32">
-            <v>94301623</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>昭和36年</v>
-          </cell>
-          <cell r="B33">
-            <v>9935667</v>
-          </cell>
-          <cell r="C33">
-            <v>94287000</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>昭和37年</v>
-          </cell>
-          <cell r="B34">
-            <v>10177298</v>
-          </cell>
-          <cell r="C34">
-            <v>95181000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>昭和38年</v>
-          </cell>
-          <cell r="B35">
-            <v>10428262</v>
-          </cell>
-          <cell r="C35">
-            <v>96156000</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>昭和39年</v>
-          </cell>
-          <cell r="B36">
-            <v>10634364</v>
-          </cell>
-          <cell r="C36">
-            <v>97182000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>昭和40年</v>
-          </cell>
-          <cell r="B37">
-            <v>10869244</v>
-          </cell>
-          <cell r="C37">
-            <v>99209137</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>昭和41年</v>
-          </cell>
-          <cell r="B38">
-            <v>11004515</v>
-          </cell>
-          <cell r="C38">
-            <v>99036000</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>昭和42年</v>
-          </cell>
-          <cell r="B39">
-            <v>11171836</v>
-          </cell>
-          <cell r="C39">
-            <v>100196000</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>昭和43年</v>
-          </cell>
-          <cell r="B40">
-            <v>11349708</v>
-          </cell>
-          <cell r="C40">
-            <v>101331000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>昭和44年</v>
-          </cell>
-          <cell r="B41">
-            <v>11453600</v>
-          </cell>
-          <cell r="C41">
-            <v>102536000</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>昭和45年</v>
-          </cell>
-          <cell r="B42">
-            <v>11408071</v>
-          </cell>
-          <cell r="C42">
-            <v>104665171</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>昭和46年</v>
-          </cell>
-          <cell r="B43">
-            <v>11513020</v>
-          </cell>
-          <cell r="C43">
-            <v>106100000</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>昭和47年</v>
-          </cell>
-          <cell r="B44">
-            <v>11581906</v>
-          </cell>
-          <cell r="C44">
-            <v>107595000</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>昭和48年</v>
-          </cell>
-          <cell r="B45">
-            <v>11612311</v>
-          </cell>
-          <cell r="C45">
-            <v>109104000</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>昭和49年</v>
-          </cell>
-          <cell r="B46">
-            <v>11622651</v>
-          </cell>
-          <cell r="C46">
-            <v>110573000</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>昭和50年</v>
-          </cell>
-          <cell r="B47">
-            <v>11673554</v>
-          </cell>
-          <cell r="C47">
-            <v>111939643</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>昭和51年</v>
-          </cell>
-          <cell r="B48">
-            <v>11683613</v>
-          </cell>
-          <cell r="C48">
-            <v>113094000</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>昭和52年</v>
-          </cell>
-          <cell r="B49">
-            <v>11695150</v>
-          </cell>
-          <cell r="C49">
-            <v>114165000</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>昭和53年</v>
-          </cell>
-          <cell r="B50">
-            <v>11696373</v>
-          </cell>
-          <cell r="C50">
-            <v>115190000</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>昭和54年</v>
-          </cell>
-          <cell r="B51">
-            <v>11687222</v>
-          </cell>
-          <cell r="C51">
-            <v>116155000</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>昭和55年</v>
-          </cell>
-          <cell r="B52">
-            <v>11618281</v>
-          </cell>
-          <cell r="C52">
-            <v>117060396</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>昭和56年</v>
-          </cell>
-          <cell r="B53">
-            <v>11634428</v>
-          </cell>
-          <cell r="C53">
-            <v>117902000</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>昭和57年</v>
-          </cell>
-          <cell r="B54">
-            <v>11676264</v>
-          </cell>
-          <cell r="C54">
-            <v>118728000</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>昭和58年</v>
-          </cell>
-          <cell r="B55">
-            <v>11746190</v>
-          </cell>
-          <cell r="C55">
-            <v>119536000</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>昭和59年</v>
-          </cell>
-          <cell r="B56">
-            <v>11822369</v>
-          </cell>
-          <cell r="C56">
-            <v>120305000</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>昭和60年</v>
-          </cell>
-          <cell r="B57">
-            <v>11829363</v>
-          </cell>
-          <cell r="C57">
-            <v>121048923</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>昭和61年</v>
-          </cell>
-          <cell r="B58">
-            <v>11906489</v>
-          </cell>
-          <cell r="C58">
-            <v>121660000</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>昭和62年</v>
-          </cell>
-          <cell r="B59">
-            <v>11929951</v>
-          </cell>
-          <cell r="C59">
-            <v>122239000</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>昭和63年</v>
-          </cell>
-          <cell r="B60">
-            <v>11935700</v>
-          </cell>
-          <cell r="C60">
-            <v>122745000</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>平成元年</v>
-          </cell>
-          <cell r="B61">
-            <v>11927457</v>
-          </cell>
-          <cell r="C61">
-            <v>123205000</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>平成2年</v>
-          </cell>
-          <cell r="B62">
-            <v>11855563</v>
-          </cell>
-          <cell r="C62">
-            <v>123611167</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>平成3年</v>
-          </cell>
-          <cell r="B63">
-            <v>11884715</v>
-          </cell>
-          <cell r="C63">
-            <v>124101000</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>平成4年</v>
-          </cell>
-          <cell r="B64">
-            <v>11890411</v>
-          </cell>
-          <cell r="C64">
-            <v>124567000</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>平成5年</v>
-          </cell>
-          <cell r="B65">
-            <v>11861778</v>
-          </cell>
-          <cell r="C65">
-            <v>124938000</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>平成6年</v>
-          </cell>
-          <cell r="B66">
-            <v>11815831</v>
-          </cell>
-          <cell r="C66">
-            <v>125265000</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>平成7年</v>
-          </cell>
-          <cell r="B67">
-            <v>11773605</v>
-          </cell>
-          <cell r="C67">
-            <v>125570246</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>平成8年</v>
-          </cell>
-          <cell r="B68">
-            <v>11789799</v>
-          </cell>
-          <cell r="C68">
-            <v>125859000</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>平成9年</v>
-          </cell>
-          <cell r="B69">
-            <v>11838466</v>
-          </cell>
-          <cell r="C69">
-            <v>126157000</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>平成10年</v>
-          </cell>
-          <cell r="B70">
-            <v>11904007</v>
-          </cell>
-          <cell r="C70">
-            <v>126472000</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>平成11年</v>
-          </cell>
-          <cell r="B71">
-            <v>11973385</v>
-          </cell>
-          <cell r="C71">
-            <v>126667000</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>平成12年</v>
-          </cell>
-          <cell r="B72">
-            <v>12064101</v>
-          </cell>
-          <cell r="C72">
-            <v>126925843</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>平成13年</v>
-          </cell>
-          <cell r="B73">
-            <v>12178176</v>
-          </cell>
-          <cell r="C73">
-            <v>127316000</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>平成14年</v>
-          </cell>
-          <cell r="B74">
-            <v>12292467</v>
-          </cell>
-          <cell r="C74">
-            <v>127486000</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>平成15年</v>
-          </cell>
-          <cell r="B75">
-            <v>12388222</v>
-          </cell>
-          <cell r="C75">
-            <v>127694000</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>平成16年</v>
-          </cell>
-          <cell r="B76">
-            <v>12477934</v>
-          </cell>
-          <cell r="C76">
-            <v>127787000</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>平成17年</v>
-          </cell>
-          <cell r="B77">
-            <v>12576601</v>
-          </cell>
-          <cell r="C77">
-            <v>127767994</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>平成18年</v>
-          </cell>
-          <cell r="B78">
-            <v>12700327</v>
-          </cell>
-          <cell r="C78">
-            <v>127901000</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>平成19年</v>
-          </cell>
-          <cell r="B79">
-            <v>12835130</v>
-          </cell>
-          <cell r="C79">
-            <v>128033000</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>平成20年</v>
-          </cell>
-          <cell r="B80">
-            <v>12965871</v>
-          </cell>
-          <cell r="C80">
-            <v>128084000</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>平成21年</v>
-          </cell>
-          <cell r="B81">
-            <v>13077625</v>
-          </cell>
-          <cell r="C81">
-            <v>128032000</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>平成22年</v>
-          </cell>
-          <cell r="B82">
-            <v>13159388</v>
-          </cell>
-          <cell r="C82">
-            <v>128057352</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>平成23年</v>
-          </cell>
-          <cell r="B83">
-            <v>13191203</v>
-          </cell>
-          <cell r="C83">
-            <v>127834000</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>平成24年</v>
-          </cell>
-          <cell r="B84">
-            <v>13225551</v>
-          </cell>
-          <cell r="C84">
-            <v>127593000</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>平成25年</v>
-          </cell>
-          <cell r="B85">
-            <v>13301154</v>
-          </cell>
-          <cell r="C85">
-            <v>127414000</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>平成26年</v>
-          </cell>
-          <cell r="B86">
-            <v>13398087</v>
-          </cell>
-          <cell r="C86">
-            <v>127237000</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>平成27年</v>
-          </cell>
-          <cell r="B87">
-            <v>13515271</v>
-          </cell>
-          <cell r="C87">
-            <v>127094745</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>平成28年</v>
-          </cell>
-          <cell r="B88">
-            <v>13636222</v>
-          </cell>
-          <cell r="C88">
-            <v>126933000</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>平成29年</v>
-          </cell>
-          <cell r="B89">
-            <v>13742906</v>
-          </cell>
-          <cell r="C89">
-            <v>126706000</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4740,46 +3775,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFB0EDF-B3CA-4DD5-8715-D15B153B86CF}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="1">
         <v>44315</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4896,7 +3944,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" t="str">
-        <f t="shared" ref="B6:B30" si="1">IF(C13 = "","",B12 + 1)</f>
+        <f t="shared" ref="B13:B30" si="1">IF(C13 = "","",B12 + 1)</f>
         <v/>
       </c>
     </row>
@@ -6027,9 +5075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A0E948-70C8-4B43-A82B-E7F23212842D}">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/ドキュメント/ドキュメント.xlsx
+++ b/ドキュメント/ドキュメント.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayaur\Documents\GitHub\GWMakeChart\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C3E1EC-9633-4E79-A383-D03BEB19C056}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7AC2CD-BB94-4817-A5C7-38D768CADE32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5A9E1359-9350-4995-A732-1B3A70830D39}"/>
+    <workbookView xWindow="-24120" yWindow="1185" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{5A9E1359-9350-4995-A732-1B3A70830D39}"/>
   </bookViews>
   <sheets>
     <sheet name="予定" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="イメージ図" sheetId="7" r:id="rId3"/>
     <sheet name="進捗=&gt;" sheetId="3" r:id="rId4"/>
     <sheet name="04-30" sheetId="4" r:id="rId5"/>
+    <sheet name="05-01" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="166">
   <si>
     <t>計画立て</t>
     <rPh sb="0" eb="3">
@@ -621,6 +622,312 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件、開発環境決定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カイハツカンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査開始</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/調査/test-01.html</t>
+    <rPh sb="1" eb="3">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルをそのまま流用して表示している</t>
+    <rPh sb="9" eb="11">
+      <t>リュウヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査内容詳細</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test-01.html</t>
+  </si>
+  <si>
+    <t>chart.js の使い方</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・読み込み</t>
+    <rPh sb="1" eb="2">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;script src="https://cdnjs.cloudflare.com/ajax/libs/Chart.js/2.7.2/Chart.bundle.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・グラフ描画エリア設定</t>
+    <rPh sb="4" eb="6">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;canvas id= id名 &gt;&lt;/canvas&gt;</t>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・chart設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var myLineChart = new Chart(ctx, {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  data: データ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  options: オプション</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: タイプ,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*各種パラメータ</t>
+    <rPh sb="1" eb="3">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>options</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画するグラフの種類</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルとデータセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション設定</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line：折れ線グラフ</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bar：棒グラフ</t>
+    <rPh sb="4" eb="5">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pie：円グラフ</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…etc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折れ線グラフ(line)の場合,labelsとdatasetsの２つの項目を設定する</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>labels：データの軸ラベル(横軸)</t>
+    <rPh sb="11" eb="12">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨコジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data：データセット(表示するデータ)</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bordercolor：線の色</t>
+    <rPh sb="12" eb="13">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backgroundcolor：線の下の塗りつぶしの色</t>
+    <rPh sb="16" eb="17">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title：グラフのタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scales：グラフの軸の詳細</t>
+    <rPh sb="11" eb="12">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照元：https://misc.0o0o.org/chartjs-doc-ja/charts/line.html</t>
+    <rPh sb="0" eb="3">
+      <t>サンショウモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(公式日本語ドキュメント)</t>
+    <rPh sb="1" eb="3">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test-03.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティは配列で渡す</t>
+    <rPh sb="6" eb="8">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -629,7 +936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +949,13 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -674,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +997,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3473,6 +3793,55 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6F9AD7-F4CC-4C04-BC08-16A6855D31C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="5476875"/>
+          <a:ext cx="4579825" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3775,9 +4144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFB0EDF-B3CA-4DD5-8715-D15B153B86CF}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3829,6 +4200,22 @@
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C14" s="1">
+        <v>44316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C16" s="1">
+        <v>44317</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3842,15 +4229,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D2DE01-263E-4AF1-95E8-20908D899EDF}">
   <dimension ref="B3:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.875" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -3881,6 +4268,15 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="1">
+        <v>44317</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5">
@@ -3890,6 +4286,15 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="1">
+        <v>44317</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6">
@@ -3898,6 +4303,15 @@
       </c>
       <c r="C6" t="s">
         <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -4060,7 +4474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79E843A-9230-451B-813D-26BAD99806B1}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5159,4 +5575,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB880D7E-5282-476A-A97D-BDA3BA883BBD}">
+  <dimension ref="B2:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="H40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="H41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>